--- a/excelDataExample.xlsx
+++ b/excelDataExample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GunUl\Desktop\react\BusRouteTSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF8B962-3DD0-4741-9C71-B790D0C498E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA3E6F4-F4F7-4F63-82D9-D27BC54DAD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{F1A326D8-BF7C-4A26-9566-F0D054523597}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{F1A326D8-BF7C-4A26-9566-F0D054523597}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -345,8 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -686,7 +685,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +744,7 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>77</v>
       </c>
       <c r="C2" t="s">
@@ -783,7 +782,7 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>78</v>
       </c>
       <c r="C3" t="s">
@@ -821,7 +820,7 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>79</v>
       </c>
       <c r="C4" t="s">
@@ -859,7 +858,7 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>80</v>
       </c>
       <c r="C5" t="s">
@@ -897,7 +896,7 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>81</v>
       </c>
       <c r="C6" t="s">
@@ -935,7 +934,7 @@
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>82</v>
       </c>
       <c r="C7" t="s">
@@ -973,7 +972,7 @@
       <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>83</v>
       </c>
       <c r="C8" t="s">
@@ -1011,7 +1010,7 @@
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>84</v>
       </c>
       <c r="C9" t="s">
@@ -1049,7 +1048,7 @@
       <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>85</v>
       </c>
       <c r="C10" t="s">
@@ -1087,7 +1086,7 @@
       <c r="A11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>86</v>
       </c>
       <c r="C11" t="s">
@@ -1125,7 +1124,7 @@
       <c r="A12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>87</v>
       </c>
       <c r="C12" t="s">
@@ -1163,7 +1162,7 @@
       <c r="A13" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>88</v>
       </c>
       <c r="C13" t="s">
@@ -1201,7 +1200,7 @@
       <c r="A14" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>89</v>
       </c>
       <c r="C14" t="s">
@@ -1239,7 +1238,7 @@
       <c r="A15" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>90</v>
       </c>
       <c r="C15" t="s">
@@ -1277,7 +1276,7 @@
       <c r="A16" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -1315,7 +1314,7 @@
       <c r="A17" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>92</v>
       </c>
       <c r="C17" t="s">
@@ -1353,7 +1352,7 @@
       <c r="A18" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>93</v>
       </c>
       <c r="C18" t="s">
@@ -1391,7 +1390,7 @@
       <c r="A19" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>94</v>
       </c>
       <c r="C19" t="s">
